--- a/result_compare.xlsx
+++ b/result_compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT\Nam_5\Final_project\FinalProjectSlide\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -187,7 +187,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -200,7 +200,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 25</a:t>
             </a:r>
           </a:p>
@@ -220,7 +220,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -599,7 +599,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -658,7 +658,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -701,7 +701,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -775,7 +775,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -788,7 +788,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 30</a:t>
             </a:r>
           </a:p>
@@ -808,7 +808,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1187,7 +1187,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1246,7 +1246,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1289,7 +1289,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1363,7 +1363,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1376,7 +1376,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 45</a:t>
             </a:r>
           </a:p>
@@ -1396,7 +1396,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1775,7 +1775,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1834,7 +1834,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1877,7 +1877,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1951,7 +1951,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1964,7 +1964,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 50</a:t>
             </a:r>
           </a:p>
@@ -1984,7 +1984,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2363,7 +2363,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2422,7 +2422,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2465,7 +2465,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5096,7 +5096,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="13.2"/>
@@ -5208,7 +5208,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5317,7 +5317,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5426,7 +5426,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
